--- a/municipal/სასტუმროები/სტუმრები/იმერეთი/ჭიათურა.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/იმერეთი/ჭიათურა.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ჭიათურის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ჭიათურის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +204,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -333,6 +392,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,18 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -663,7 +725,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -730,66 +792,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
     </row>
     <row r="3" spans="1:61" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -867,14 +929,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38">
+      <c r="A4" s="43">
         <v>2010</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1382,14 +1444,14 @@
       <c r="BI10" s="14"/>
     </row>
     <row r="11" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="40">
         <v>2011</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1567,14 +1629,14 @@
       </c>
     </row>
     <row r="18" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="40">
         <v>2012</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -1641,8 +1703,8 @@
       <c r="C19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>8</v>
+      <c r="D19" s="25">
+        <v>82</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>8</v>
@@ -1661,8 +1723,8 @@
       <c r="C20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>8</v>
+      <c r="D20" s="14">
+        <v>82</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>8</v>
@@ -1752,14 +1814,14 @@
       </c>
     </row>
     <row r="25" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="A25" s="40">
         <v>2013</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -1820,19 +1882,19 @@
       <c r="A26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="35">
         <v>1161</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="41">
+      <c r="C26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="35">
         <v>1161</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="42" t="s">
+      <c r="E26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1840,19 +1902,19 @@
       <c r="A27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="37">
         <v>1131</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="43">
+      <c r="C27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="37">
         <v>1131</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="43" t="s">
+      <c r="E27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1860,19 +1922,19 @@
       <c r="A28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="37">
         <v>30</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="43">
+      <c r="C28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="37">
         <v>30</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="43" t="s">
+      <c r="E28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1880,19 +1942,19 @@
       <c r="A29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="37">
         <v>15</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="43">
+      <c r="C29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="37">
         <v>15</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1900,19 +1962,19 @@
       <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="37">
         <v>15</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="43">
+      <c r="C30" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="37">
         <v>15</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1920,31 +1982,31 @@
       <c r="A31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="44" t="s">
+      <c r="B31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="40">
         <v>2014</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -2122,14 +2184,14 @@
       </c>
     </row>
     <row r="39" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35">
+      <c r="A39" s="40">
         <v>2015</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -2362,14 +2424,14 @@
       </c>
     </row>
     <row r="46" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35">
+      <c r="A46" s="40">
         <v>2016</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -2547,14 +2609,14 @@
       </c>
     </row>
     <row r="53" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35">
+      <c r="A53" s="40">
         <v>2017</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -2732,14 +2794,14 @@
       </c>
     </row>
     <row r="60" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="35">
+      <c r="A60" s="40">
         <v>2018</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -2800,19 +2862,19 @@
       <c r="A61" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="41">
+      <c r="B61" s="35">
         <v>3082</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="36">
         <v>1900</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="35">
         <v>440</v>
       </c>
-      <c r="E61" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="42">
+      <c r="E61" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="36">
         <v>742</v>
       </c>
     </row>
@@ -2820,19 +2882,19 @@
       <c r="A62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="37">
         <v>3066</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="37">
         <v>1900</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="37">
         <v>440</v>
       </c>
-      <c r="E62" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="43">
+      <c r="E62" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="37">
         <v>726</v>
       </c>
     </row>
@@ -2840,19 +2902,19 @@
       <c r="A63" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="37">
         <v>16</v>
       </c>
-      <c r="C63" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="43">
+      <c r="C63" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="37">
         <v>16</v>
       </c>
     </row>
@@ -2860,19 +2922,19 @@
       <c r="A64" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="37">
         <v>16</v>
       </c>
-      <c r="C64" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="43">
+      <c r="C64" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="37">
         <v>16</v>
       </c>
     </row>
@@ -2880,19 +2942,19 @@
       <c r="A65" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="43" t="s">
+      <c r="B65" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2900,31 +2962,31 @@
       <c r="A66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="44" t="s">
+      <c r="B66" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="35">
+      <c r="A67" s="40">
         <v>2019</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
@@ -2985,19 +3047,19 @@
       <c r="A68" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="41">
+      <c r="B68" s="35">
         <v>1680</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="36">
         <v>1000</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="35">
         <v>55</v>
       </c>
-      <c r="E68" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="42">
+      <c r="E68" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="36">
         <v>625</v>
       </c>
     </row>
@@ -3005,19 +3067,19 @@
       <c r="A69" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="37">
         <v>1655</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="37">
         <v>1000</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="37">
         <v>55</v>
       </c>
-      <c r="E69" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="43">
+      <c r="E69" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="37">
         <v>600</v>
       </c>
     </row>
@@ -3025,19 +3087,19 @@
       <c r="A70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="37">
         <v>25</v>
       </c>
-      <c r="C70" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="43">
+      <c r="C70" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="37">
         <v>25</v>
       </c>
     </row>
@@ -3045,19 +3107,19 @@
       <c r="A71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="37">
         <v>25</v>
       </c>
-      <c r="C71" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="43">
+      <c r="C71" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="37">
         <v>25</v>
       </c>
     </row>
@@ -3065,19 +3127,19 @@
       <c r="A72" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="43" t="s">
+      <c r="B72" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3085,31 +3147,31 @@
       <c r="A73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="44" t="s">
+      <c r="B73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="35">
+      <c r="A74" s="40">
         <v>2020</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
@@ -3287,14 +3349,14 @@
       </c>
     </row>
     <row r="81" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="35">
+      <c r="A81" s="40">
         <v>2021</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
@@ -3355,19 +3417,19 @@
       <c r="A82" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="41">
+      <c r="B82" s="35">
         <v>1310</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="36">
         <v>22</v>
       </c>
-      <c r="D82" s="41">
+      <c r="D82" s="35">
         <v>900</v>
       </c>
-      <c r="E82" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="42">
+      <c r="E82" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="36">
         <v>388</v>
       </c>
     </row>
@@ -3375,19 +3437,19 @@
       <c r="A83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="43">
+      <c r="B83" s="37">
         <v>1294</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="37">
         <v>6</v>
       </c>
-      <c r="D83" s="43">
+      <c r="D83" s="37">
         <v>900</v>
       </c>
-      <c r="E83" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="43">
+      <c r="E83" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="37">
         <v>388</v>
       </c>
     </row>
@@ -3395,19 +3457,19 @@
       <c r="A84" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="43">
+      <c r="B84" s="37">
         <v>16</v>
       </c>
-      <c r="C84" s="43">
+      <c r="C84" s="37">
         <v>16</v>
       </c>
-      <c r="D84" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="43" t="s">
+      <c r="D84" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3415,19 +3477,19 @@
       <c r="A85" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="43">
+      <c r="B85" s="37">
         <v>14</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="37">
         <v>14</v>
       </c>
-      <c r="D85" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="43" t="s">
+      <c r="D85" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3435,19 +3497,19 @@
       <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="43" t="s">
+      <c r="B86" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3455,24 +3517,34 @@
       <c r="A87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="44" t="s">
-        <v>8</v>
-      </c>
+      <c r="B87" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3489,6 +3561,7 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="AP2:AT2"/>
     <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A32:F32"/>
